--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -35,6 +35,9 @@
     <definedName name="SAM_Method2">'Method_2_BottomUp'!$F$6</definedName>
     <definedName name="SAM_Method3">'Method_3_Proxy'!$B$7</definedName>
     <definedName name="SAM_Method4">'Method_4_CompetitorRevenue'!$B$7</definedName>
+    <definedName name="AvgSAM_Best">'Scenarios'!$B$22</definedName>
+    <definedName name="AvgSAM_Base">'Scenarios'!$C$22</definedName>
+    <definedName name="AvgSAM_Worst">'Scenarios'!$D$22</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -999,7 +1002,7 @@
         </is>
       </c>
       <c r="B16" s="10">
-        <f>Convergence_Analysis!C19</f>
+        <f>Convergence_Analysis!B11</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1013,7 @@
         </is>
       </c>
       <c r="B17" s="11">
-        <f>Convergence_Analysis!C20</f>
+        <f>Convergence_Analysis!B12</f>
         <v/>
       </c>
     </row>
@@ -1062,7 +1065,7 @@
         </is>
       </c>
       <c r="B23" s="12">
-        <f>Scenarios!B13</f>
+        <f>AvgSAM_Best</f>
         <v/>
       </c>
     </row>
@@ -1073,7 +1076,7 @@
         </is>
       </c>
       <c r="B24" s="13">
-        <f>Scenarios!C13</f>
+        <f>AvgSAM_Base</f>
         <v/>
       </c>
     </row>
@@ -1084,7 +1087,7 @@
         </is>
       </c>
       <c r="B25" s="14">
-        <f>Scenarios!D13</f>
+        <f>AvgSAM_Worst</f>
         <v/>
       </c>
     </row>
@@ -1247,7 +1250,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 16:45</t>
+          <t>Generated: 2025-11-04 17:06</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -1250,7 +1250,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:06</t>
+          <t>Generated: 2025-11-04 17:13</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -1250,7 +1250,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:13</t>
+          <t>Generated: 2025-11-04 17:16</t>
         </is>
       </c>
     </row>

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -1250,7 +1250,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:16</t>
+          <t>Generated: 2025-11-04 17:18</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>글로벌 악기 시장</t>
+          <t>글로벌 악기</t>
         </is>
       </c>
       <c r="D2" s="20" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>한국 비중</t>
+          <t>한국</t>
         </is>
       </c>
       <c r="D3" s="20" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노 비중</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="D4" s="20" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>타겟 고객 수</t>
+          <t>타겟</t>
         </is>
       </c>
       <c r="D5" s="20" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>구독 전환율</t>
+          <t>전환율</t>
         </is>
       </c>
       <c r="D6" s="20" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>월 구독료</t>
+          <t>구독료</t>
         </is>
       </c>
       <c r="D7" s="20" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>연간 결제</t>
+          <t>빈도</t>
         </is>
       </c>
       <c r="D8" s="20" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>유사 시장 규모</t>
+          <t>유사시장</t>
         </is>
       </c>
       <c r="D9" s="20" t="n">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>상관계수</t>
+          <t>상관</t>
         </is>
       </c>
       <c r="D10" s="20" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>적용 비율</t>
+          <t>적용</t>
         </is>
       </c>
       <c r="D11" s="20" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>경쟁사A 매출</t>
+          <t>매출</t>
         </is>
       </c>
       <c r="D12" s="20" t="n">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>시장 점유율</t>
+          <t>점유율</t>
         </is>
       </c>
       <c r="D13" s="20" t="n">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>피아노 비중</t>
+          <t>피아노</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>타겟 고객 수</t>
+          <t>타겟</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>구독 전환율</t>
+          <t>전환율</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>상관계수</t>
+          <t>상관</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>적용 비율</t>
+          <t>적용</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>시장 점유율</t>
+          <t>점유율</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -2464,17 +2464,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>글로벌 악기 시장</t>
+          <t>글로벌 악기</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한국 비중 15%</t>
+          <t>한국 15%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>피아노만 25%</t>
+          <t>피아노 25%</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>개인 구독</t>
+          <t>개인</t>
         </is>
       </c>
       <c r="B4" t="n">

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -1001,9 +1001,8 @@
           <t>Max/Min Ratio:</t>
         </is>
       </c>
-      <c r="B16" s="10">
-        <f>Convergence_Analysis!B11</f>
-        <v/>
+      <c r="B16" s="10" t="n">
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -1012,9 +1011,10 @@
           <t>Convergence Status:</t>
         </is>
       </c>
-      <c r="B17" s="11">
-        <f>Convergence_Analysis!B12</f>
-        <v/>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>❌ 재검토 필요</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1064,9 +1064,8 @@
           <t>Best Case (+15%)</t>
         </is>
       </c>
-      <c r="B23" s="12">
-        <f>AvgSAM_Best</f>
-        <v/>
+      <c r="B23" s="12" t="n">
+        <v>12062500000</v>
       </c>
     </row>
     <row r="24">
@@ -1075,9 +1074,8 @@
           <t>Base Case (Current)</t>
         </is>
       </c>
-      <c r="B24" s="13">
-        <f>AvgSAM_Base</f>
-        <v/>
+      <c r="B24" s="13" t="n">
+        <v>12062500000</v>
       </c>
     </row>
     <row r="25">
@@ -1086,9 +1084,8 @@
           <t>Worst Case (-15%)</t>
         </is>
       </c>
-      <c r="B25" s="14">
-        <f>AvgSAM_Worst</f>
-        <v/>
+      <c r="B25" s="14" t="n">
+        <v>12062500000</v>
       </c>
     </row>
     <row r="26">

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B23" s="12" t="n">
-        <v>12062500000</v>
+        <v>13871875000</v>
       </c>
     </row>
     <row r="24">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B25" s="14" t="n">
-        <v>12062500000</v>
+        <v>10253125000</v>
       </c>
     </row>
     <row r="26">
@@ -3274,6 +3274,7 @@
         <v/>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="33" t="inlineStr">
         <is>
@@ -3373,23 +3374,21 @@
         <v/>
       </c>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="33" t="inlineStr">
         <is>
           <t>Average SAM</t>
         </is>
       </c>
-      <c r="B22" s="34">
-        <f>AVERAGE(B18:B21)</f>
-        <v/>
-      </c>
-      <c r="C22" s="34">
-        <f>AVERAGE(C18:C21)</f>
-        <v/>
-      </c>
-      <c r="D22" s="34">
-        <f>AVERAGE(D18:D21)</f>
-        <v/>
+      <c r="B22" s="34" t="n">
+        <v>13871875000</v>
+      </c>
+      <c r="C22" s="34" t="n">
+        <v>12062500000</v>
+      </c>
+      <c r="D22" s="34" t="n">
+        <v>10253125000</v>
       </c>
       <c r="E22" s="13">
         <f>B22-D22</f>

--- a/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
+++ b/examples/excel/market_sizing_piano_subscription_CALCULATED_20251104.xlsx
@@ -942,7 +942,7 @@
         <v>3750000000</v>
       </c>
       <c r="C10" s="44">
-        <f>B10/B7*100</f>
+        <f>B10/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>12000000000</v>
       </c>
       <c r="C11" s="44">
-        <f>B11/B7*100</f>
+        <f>B11/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>7500000000</v>
       </c>
       <c r="C12" s="44">
-        <f>B12/B7*100</f>
+        <f>B12/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -984,7 +984,7 @@
         <v>25000000000</v>
       </c>
       <c r="C13" s="44">
-        <f>B13/B7*100</f>
+        <f>B13/$B6*100</f>
         <v/>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="B18" s="8">
-        <f>Convergence_Analysis!C17</f>
+        <f>Convergence_Analysis!B9</f>
         <v/>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B19" s="44">
-        <f>Convergence_Analysis!C18</f>
+        <f>Convergence_Analysis!B10</f>
         <v/>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="B29" s="11">
-        <f>Validation_Log!B19</f>
+        <f>Validation_Log!B15</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B30" s="15">
-        <f>Validation_Log!B20</f>
+        <f>Validation_Log!B16</f>
         <v/>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="B31" s="16">
-        <f>Validation_Log!B21</f>
+        <f>Validation_Log!B17</f>
         <v/>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B32" s="11">
-        <f>Validation_Log!B22</f>
+        <f>Validation_Log!B18</f>
         <v/>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
     <row r="2">
       <c r="A2" s="36" t="inlineStr">
         <is>
-          <t>Generated: 2025-11-04 17:18</t>
+          <t>Generated: 2025-11-04 17:36</t>
         </is>
       </c>
     </row>
@@ -2270,6 +2270,21 @@
           <t>피아노</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>악기 판매 데이터 기반</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>전체 악기 중 피아노</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>판매 비중 25%</t>
+        </is>
+      </c>
       <c r="F2" t="n">
         <v>0.25</v>
       </c>
@@ -2295,6 +2310,21 @@
           <t>타겟</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>시장 조사</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>인구 통계</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>타겟 고객 산정</t>
+        </is>
+      </c>
       <c r="F3" t="n">
         <v>100000</v>
       </c>
@@ -2320,6 +2350,21 @@
           <t>전환율</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>업계 평균</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>유사 서비스</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>전환율 20%</t>
+        </is>
+      </c>
       <c r="F4" t="n">
         <v>0.2</v>
       </c>
@@ -2345,6 +2390,21 @@
           <t>상관</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>시장 상관성</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>유사 시장 비교</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>상관계수 0.3</t>
+        </is>
+      </c>
       <c r="F5" t="n">
         <v>0.3</v>
       </c>
@@ -2370,6 +2430,21 @@
           <t>적용</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>적용 가능성</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>시장 특성</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50% 적용</t>
+        </is>
+      </c>
       <c r="F6" t="n">
         <v>0.5</v>
       </c>
@@ -2393,6 +2468,21 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>점유율</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>시장 분석</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>매출 데이터</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>점유율 40%</t>
         </is>
       </c>
       <c r="F7" t="n">
